--- a/tables/peel_tables_bmi.xlsx
+++ b/tables/peel_tables_bmi.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/SSD2/AED Dropbox/Matt Hipsey/PeelBook/deployed/peel-book/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{457D09C8-01C7-B042-956A-8BA7441C42A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C13DB18-7C21-754F-8A48-8083F655FD8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9660" yWindow="1440" windowWidth="26520" windowHeight="20040" xr2:uid="{28B11EC1-9C24-E649-9168-BB713EB9C355}"/>
+    <workbookView xWindow="9660" yWindow="1440" windowWidth="26520" windowHeight="20040" activeTab="2" xr2:uid="{28B11EC1-9C24-E649-9168-BB713EB9C355}"/>
   </bookViews>
   <sheets>
     <sheet name="bmised" sheetId="9" r:id="rId1"/>
     <sheet name="bmiebci" sheetId="12" r:id="rId2"/>
+    <sheet name="bmimon" sheetId="13" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="86">
   <si>
     <t>Group</t>
   </si>
@@ -304,13 +305,343 @@
       </rPr>
       <t>µm) to muds (less than 63 µm)</t>
     </r>
+  </si>
+  <si>
+    <t>Benthic characteristic</t>
+  </si>
+  <si>
+    <t>Sampling method</t>
+  </si>
+  <si>
+    <t>Sampling sites</t>
+  </si>
+  <si>
+    <t>Sampling seasons</t>
+  </si>
+  <si>
+    <t>Interannual frequency</t>
+  </si>
+  <si>
+    <t>**Species composition of the invertebrate community** &lt;br&gt;(*to support calculation of the EBCI*)</t>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Annually if resources allow.&lt;br&gt;·   Alternatively, every 3 (maximum 5) years.</t>
+    </r>
+  </si>
+  <si>
+    <t>**Justification**&lt;br&gt;·   *The EBCI has shown promise as a robust measure of benthic ecological health in the Peel-Harvey Estuary.*</t>
+  </si>
+  <si>
+    <t>**Justification**&lt;br&gt;·   *Sediment condition summarizes texture (muddiness), colour (oxygen availability) and odour (presence of toxic sulphides).*&lt;br&gt;·   *Provides an independent and biologically-relevant measure of benthic environmental health.*</t>
+  </si>
+  <si>
+    <t>As for invertebrates</t>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sediment cores (as per the methods in this Chapter).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Representative spread of previously surveyed sites spanning (i) various BCI grades, (ii) each region and (iii) shallow and deeper waters (e.g. Fig. 8.14).&lt;br&gt;·   Other sites added as needed (e.g. additional monitoring of areas in poor health and/or those with proposed developments), or as resources allow.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Summer and winter.&lt;br&gt;·   Monitoring will take ~5–7 days per season, depending on the number of sampling sites.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;br&gt;·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>   *</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Maintains continuity with the current data set.*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;br&gt;·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>   *</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Existing sites: maintains continuity with the current data set; fewer sites are not recommended due to faunal variability.*&lt;br&gt;·   *New sites: ability to capture emerging trends or stressors; better representation across estuary.*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;br&gt;·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>   *</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Maintains continuity with the current data set.*&lt;br&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>·   *Captures seasonal extremes in environment conditions.*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;br&gt;·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>   *</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Annual surveys have greatest ability to detect trends and to bolster robustness of the EBCI.*&lt;br&gt;·   *Less frequent surveys have lower capacity to distinguish real trends (‘signal’) from natural variability (‘noise’)*.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Rapid Assessment Protocol (RAP), as per the methods outlined in Hallett et al. (2019b).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>As for invertebrates</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;br&gt;·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>   *</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RAP shown to be a robust, cost-effective approach for quantifying sediment condition.*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;br&gt;·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>   *</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Maintains direct comparability with the invertebrate data*</t>
+    </r>
+  </si>
+  <si>
+    <t>**Sediment condition**^a^&lt;br&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -367,8 +698,66 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -387,8 +776,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -533,11 +928,96 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -576,6 +1056,39 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -904,7 +1417,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C88C9E47-9A91-4C44-81C1-76D9830D24C1}">
   <dimension ref="B1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -973,13 +1486,13 @@
       </c>
     </row>
     <row r="6" spans="2:5" ht="154" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="27" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="6" t="s">
@@ -987,9 +1500,9 @@
       </c>
     </row>
     <row r="7" spans="2:5" ht="57" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="15"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
       <c r="E7" s="4" t="s">
         <v>15</v>
       </c>
@@ -1280,4 +1793,108 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D59BA0D-45F1-AB46-B96E-058896F9806B}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="5" width="31" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="280" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="90" x14ac:dyDescent="0.2">
+      <c r="A4" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="46" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="120" x14ac:dyDescent="0.2">
+      <c r="A6" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/tables/peel_tables_bmi.xlsx
+++ b/tables/peel_tables_bmi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/SSD2/AED Dropbox/Matt Hipsey/PeelBook/deployed/peel-book/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C13DB18-7C21-754F-8A48-8083F655FD8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B53B805-3878-BD43-B7BF-D08A0BD03FD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9660" yWindow="1440" windowWidth="26520" windowHeight="20040" activeTab="2" xr2:uid="{28B11EC1-9C24-E649-9168-BB713EB9C355}"/>
+    <workbookView xWindow="9660" yWindow="1440" windowWidth="26520" windowHeight="20040" xr2:uid="{28B11EC1-9C24-E649-9168-BB713EB9C355}"/>
   </bookViews>
   <sheets>
     <sheet name="bmised" sheetId="9" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="85">
   <si>
     <t>Group</t>
   </si>
@@ -73,57 +73,12 @@
     <t>Microscopic algae that live on or near the sediment surface, where light penetration is sufficient</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">1 mL of sediment stored in acetone, wrapped to exclude sunlight, then chlorophyll </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (Chl a) measured in the lab using spectrophotometry. Expressed as mg m</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>-2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
     <t>Natural</t>
   </si>
   <si>
     <t>Top 15 cm of sediment core homogenised, subsampled and subjected to laser diffraction, following chemical pretreatment. Particle size proportions in each sample expressed as a percentage.</t>
   </si>
   <si>
-    <t>%Mud – Condition</t>
-  </si>
-  <si>
-    <t>% of other particle sizes - Natural</t>
-  </si>
-  <si>
     <t>Proportion of the sediment comprising organic matter</t>
   </si>
   <si>
@@ -169,15 +124,6 @@
     <t>Total number of phyla</t>
   </si>
   <si>
-    <t>Species richness*</t>
-  </si>
-  <si>
-    <t>Shannon-Wiener diversity*</t>
-  </si>
-  <si>
-    <t>Community dominance*</t>
-  </si>
-  <si>
     <t>Proportion of Annelida</t>
   </si>
   <si>
@@ -199,40 +145,19 @@
     <t>Indicator taxa</t>
   </si>
   <si>
-    <t>Proportion of surficial modifiers</t>
-  </si>
-  <si>
     <t>Taxa that rework the top 2 cm of sediment</t>
   </si>
   <si>
-    <t>Proportion of biodiffusors</t>
-  </si>
-  <si>
     <t xml:space="preserve">Taxa that transport sediment in a random manner over short distances </t>
   </si>
   <si>
-    <t>Proportion of upward conveyors</t>
-  </si>
-  <si>
     <t xml:space="preserve">Taxa that transport sediment from deeper to surface layers </t>
   </si>
   <si>
-    <t xml:space="preserve">Proportion of upward/downward conveyors </t>
-  </si>
-  <si>
     <t xml:space="preserve">Taxa that transport sediment from surface to deeper layers </t>
   </si>
   <si>
-    <t>Proportion of suspension feeders</t>
-  </si>
-  <si>
     <t xml:space="preserve">Taxa that filter plankton or detritus out of the water column </t>
-  </si>
-  <si>
-    <t>Proportion of generalist feeders</t>
-  </si>
-  <si>
-    <t>Sediment reworking groups (Queirós et al. 2013)</t>
   </si>
   <si>
     <t>Taxa that use two or more feeding modes (e.g. filter feeding, deposit feeding, scavenging)</t>
@@ -635,6 +560,78 @@
   </si>
   <si>
     <t>**Sediment condition**^a^&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>*Proportion of surficial modifiers*</t>
+  </si>
+  <si>
+    <t>*Proportion of biodiffusors*</t>
+  </si>
+  <si>
+    <t>*Proportion of upward conveyors*</t>
+  </si>
+  <si>
+    <t>**Sediment reworking groups** (Queirós et al. 2013):</t>
+  </si>
+  <si>
+    <t>*Proportion of upward/downward conveyors *</t>
+  </si>
+  <si>
+    <t>*Proportion of suspension feeders*</t>
+  </si>
+  <si>
+    <t>*Proportion of generalist feeders*</t>
+  </si>
+  <si>
+    <t>Species richness^a^</t>
+  </si>
+  <si>
+    <t>Shannon-Wiener diversity^a^</t>
+  </si>
+  <si>
+    <t>Community dominance^a^</t>
+  </si>
+  <si>
+    <t>%Mud – Condition&lt;br&gt;% of other particle sizes - Natural</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 mL of sediment stored in acetone, wrapped to exclude sunlight, then chlorophyll </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (Chl a) measured in the lab using spectrophotometry. Expressed as mg/m^</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2^</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1017,7 +1014,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1092,13 +1089,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1415,10 +1406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C88C9E47-9A91-4C44-81C1-76D9830D24C1}">
-  <dimension ref="B1:E8"/>
+  <dimension ref="B1:E7"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1445,7 +1436,7 @@
     </row>
     <row r="3" spans="2:5" ht="126" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>5</v>
@@ -1459,7 +1450,7 @@
     </row>
     <row r="4" spans="2:5" ht="126" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>8</v>
@@ -1473,60 +1464,47 @@
     </row>
     <row r="5" spans="2:5" ht="196" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="154" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="71" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="D7" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" ht="57" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="26"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" ht="71" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="9" t="s">
+      <c r="E7" s="9" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1536,12 +1514,14 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="5" width="18.6640625" customWidth="1"/>
+    <col min="1" max="1" width="86.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="46" thickBot="1" x14ac:dyDescent="0.25">
@@ -1549,245 +1529,245 @@
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="D18" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1799,7 +1779,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D59BA0D-45F1-AB46-B96E-058896F9806B}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -1811,87 +1791,87 @@
     <row r="1" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="280" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="90" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="120" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
